--- a/docs/Control de cambios.xlsx
+++ b/docs/Control de cambios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp7\htdocs\github\guerrero\guerrero\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8D4DDF-C941-465A-A35C-103A90E4F18A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D8C9CF1-22ED-43E7-922F-A8810C04B013}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1ECF2FFC-9BCB-4523-8688-29984ED0D7DC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{1ECF2FFC-9BCB-4523-8688-29984ED0D7DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="56">
   <si>
     <t>Solicitud</t>
   </si>
@@ -1518,15 +1518,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>721608</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>64383</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1556,7 +1556,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="504825" y="314325"/>
+          <a:off x="609600" y="542925"/>
           <a:ext cx="4788783" cy="2381250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1578,16 +1578,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9038</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1617,7 +1617,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6572251" y="2724150"/>
+          <a:off x="7429501" y="2305050"/>
           <a:ext cx="4867274" cy="2618888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1711,16 +1711,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1749,7 +1749,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="3705224"/>
+          <a:off x="1762125" y="3990974"/>
           <a:ext cx="4476750" cy="1343025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1839,15 +1839,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>20862</xdr:rowOff>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>135162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>361951</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1877,7 +1877,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="190501" y="20862"/>
+          <a:off x="533401" y="325662"/>
           <a:ext cx="7791450" cy="3827238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2595,9 +2595,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{098678E7-211D-4806-B999-13853BE4BD13}">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,7 +2990,9 @@
       <c r="I18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="19" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -3181,7 +3183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75F7F5DA-2F03-4C3B-A787-E3CE7E8168E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3208,7 +3210,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
